--- a/SoSe_2022/Schedule/Semester_overview.xlsx
+++ b/SoSe_2022/Schedule/Semester_overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jens.klenke\Documents\GitHub\OEK_ARE\SoSe_2022\Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/git_projects/OEK_ARE/SoSe_2022/Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F6F6E6-B232-44F8-853B-5DE173705737}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60740A92-46C9-F94E-915A-BC1802B25260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" xr2:uid="{8D9B8771-3A97-47B7-9119-3C46B2B9CF75}"/>
+    <workbookView xWindow="860" yWindow="640" windowWidth="27920" windowHeight="17000" xr2:uid="{8D9B8771-3A97-47B7-9119-3C46B2B9CF75}"/>
   </bookViews>
   <sheets>
     <sheet name="SoSe_lectures" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>Topic</t>
   </si>
@@ -148,16 +148,52 @@
     <t>ggplot2</t>
   </si>
   <si>
-    <t>Lecturer</t>
-  </si>
-  <si>
     <t>dplyr/databases</t>
   </si>
   <si>
-    <t>R Markdown/Git</t>
-  </si>
-  <si>
-    <t>Introduction</t>
+    <t>Jens Klenke</t>
+  </si>
+  <si>
+    <t>Martin Arnold</t>
+  </si>
+  <si>
+    <t>rmarkdown/Git</t>
+  </si>
+  <si>
+    <t>web scraping</t>
+  </si>
+  <si>
+    <t>advanced R concepts</t>
+  </si>
+  <si>
+    <t>functional programming</t>
+  </si>
+  <si>
+    <t>Object oriented programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profiling/benchmarking </t>
+  </si>
+  <si>
+    <t>improving performance</t>
+  </si>
+  <si>
+    <t>lecturer</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>no class</t>
+  </si>
+  <si>
+    <t>week</t>
   </si>
 </sst>
 </file>
@@ -167,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +215,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -210,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -223,6 +266,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,32 +583,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3126BEF-6D01-448E-B5E5-1223CE4E7337}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="213" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -572,13 +616,13 @@
         <v>44655</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -586,13 +630,13 @@
         <v>44662</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -602,9 +646,11 @@
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -615,10 +661,10 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -629,10 +675,10 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -640,13 +686,13 @@
         <v>44690</v>
       </c>
       <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -654,13 +700,13 @@
         <v>44697</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -668,13 +714,13 @@
         <v>44704</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -682,13 +728,13 @@
         <v>44711</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -698,9 +744,11 @@
       <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -708,13 +756,13 @@
         <v>44725</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -722,13 +770,13 @@
         <v>44732</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -736,13 +784,13 @@
         <v>44739</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -752,11 +800,11 @@
       <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -766,8 +814,8 @@
       <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" t="s">
-        <v>17</v>
+      <c r="D16" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -783,16 +831,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.83203125" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -817,7 +865,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -837,7 +885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -857,7 +905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -869,7 +917,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -886,7 +934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -906,7 +954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -926,7 +974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -943,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -963,7 +1011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -983,7 +1031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -995,7 +1043,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1015,7 +1063,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1035,7 +1083,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1049,7 +1097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1066,7 +1114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1083,22 +1131,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="I18" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="I19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
     </row>
   </sheetData>

--- a/SoSe_2022/Schedule/Semester_overview.xlsx
+++ b/SoSe_2022/Schedule/Semester_overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/git_projects/OEK_ARE/SoSe_2022/Schedule/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jens.klenke\Documents\GitHub\OEK_ARE\SoSe_2022\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60740A92-46C9-F94E-915A-BC1802B25260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ECDC30-3A90-42B4-B326-CF685298FA65}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="640" windowWidth="27920" windowHeight="17000" xr2:uid="{8D9B8771-3A97-47B7-9119-3C46B2B9CF75}"/>
+    <workbookView xWindow="864" yWindow="636" windowWidth="27924" windowHeight="17004" xr2:uid="{8D9B8771-3A97-47B7-9119-3C46B2B9CF75}"/>
   </bookViews>
   <sheets>
     <sheet name="SoSe_lectures" sheetId="2" r:id="rId1"/>
@@ -169,9 +169,6 @@
     <t>functional programming</t>
   </si>
   <si>
-    <t>Object oriented programming</t>
-  </si>
-  <si>
     <t xml:space="preserve">profiling/benchmarking </t>
   </si>
   <si>
@@ -194,6 +191,9 @@
   </si>
   <si>
     <t>week</t>
+  </si>
+  <si>
+    <t>object oriented programming</t>
   </si>
 </sst>
 </file>
@@ -584,31 +584,31 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="213" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -616,13 +616,13 @@
         <v>44655</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -636,7 +636,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -647,10 +647,10 @@
         <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -664,7 +664,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -678,7 +678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -692,7 +692,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -706,7 +706,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -720,7 +720,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -734,7 +734,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -745,10 +745,10 @@
         <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -756,13 +756,13 @@
         <v>44725</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -770,13 +770,13 @@
         <v>44732</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -784,13 +784,13 @@
         <v>44739</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -804,7 +804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -831,16 +831,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.77734375" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -865,7 +865,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -885,7 +885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -905,7 +905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -917,7 +917,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -934,7 +934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -954,7 +954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -974,7 +974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1131,22 +1131,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="I18" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="I19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
     </row>
   </sheetData>
